--- a/Assignment 2/ALBiR calib.xlsx
+++ b/Assignment 2/ALBiR calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabee\Desktop\Visually_Guided_Foraging_Robot\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D5CF30-1A75-48B4-8F0E-702BF0451FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CE4F6-4CA6-40BD-8478-D344046A17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE8C274A-52F6-4AFE-8F7C-A936463B231C}"/>
   </bookViews>
@@ -142,7 +142,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.129817106195059E-2"/>
+          <c:y val="1.5674999101139755E-2"/>
+          <c:w val="0.93093727867349918"/>
+          <c:h val="0.82817275195052675"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1442,7 +1452,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
